--- a/censuses_1b/censo.xlsx
+++ b/censuses_1b/censo.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santiagomartin/Desktop/ASW/Lab/censuses_1b/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santiagomartin/Desktop/ASW/Lab/Voting_1b/censuses_1b/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,6 +16,9 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>nombre</t>
   </si>
@@ -47,9 +50,6 @@
     <t>65432123A</t>
   </si>
   <si>
-    <t>fdshghg</t>
-  </si>
-  <si>
     <t>Juan</t>
   </si>
   <si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>75643234W</t>
-  </si>
-  <si>
-    <t>jkcfdasd</t>
   </si>
   <si>
     <t>Sergio</t>
@@ -454,7 +451,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D9" sqref="D2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -483,106 +480,106 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
+      <c r="D2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
+      <c r="D3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
